--- a/SCBAA/2018/NIR.xlsx
+++ b/SCBAA/2018/NIR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E560CFB1-4117-43E5-9587-92D8C7624511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238C083A-683C-47FA-A614-D6AA6D13ECA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15180" yWindow="1335" windowWidth="12780" windowHeight="12495" firstSheet="13" activeTab="17" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="12" activeTab="16" xr2:uid="{360BF9DE-B15B-43CE-9291-7E05B391F461}"/>
   </bookViews>
   <sheets>
     <sheet name="Bacolod" sheetId="10" r:id="rId1"/>
@@ -36,6 +36,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1957,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1EECD59-C1E3-4A87-85F0-D27E48B54FFB}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2123,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>754119932.80999994</v>
       </c>
     </row>
@@ -2170,7 +2176,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>136972306.82999998</v>
       </c>
     </row>
@@ -2286,7 +2291,6 @@
         <v>39</v>
       </c>
       <c r="E30" s="50">
-        <f>67269137.71+365837</f>
         <v>67634974.709999993</v>
       </c>
     </row>
@@ -2362,7 +2366,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>3839665555.0900002</v>
       </c>
     </row>
@@ -2939,7 +2942,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>2090955784.3900008</v>
       </c>
     </row>
@@ -3114,7 +3116,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>98407609.320000008</v>
       </c>
     </row>
@@ -3126,7 +3127,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>2189363393.710001</v>
       </c>
     </row>
@@ -3148,8 +3148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C63FAB-F416-4509-96DA-4E54AB1A9B4D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="E3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3274,7 +3274,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="111">
-        <f>382173.93+4483081.17</f>
         <v>4865255.0999999996</v>
       </c>
     </row>
@@ -3286,7 +3285,6 @@
         <v>24</v>
       </c>
       <c r="E12" s="111">
-        <f>720558.63+5647152.32+135900+377760</f>
         <v>6881370.9500000002</v>
       </c>
     </row>
@@ -3298,7 +3296,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="112">
-        <f>14878.2+847049.9+9915+889392.59</f>
         <v>1761235.69</v>
       </c>
     </row>
@@ -3310,7 +3307,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>13507861.74</v>
       </c>
     </row>
@@ -3331,7 +3327,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="111">
-        <f>1330+1696162.67+745158.4+881522.01</f>
         <v>3324173.08</v>
       </c>
     </row>
@@ -3343,7 +3338,6 @@
         <v>27</v>
       </c>
       <c r="E17" s="111">
-        <f>214645+588090+926517+97408+1731352.5+25194.96+171029.63+334294.25</f>
         <v>4088531.34</v>
       </c>
     </row>
@@ -3366,7 +3360,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>8305061.4100000001</v>
       </c>
     </row>
@@ -3557,7 +3550,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>677850636.01999998</v>
       </c>
     </row>
@@ -4134,7 +4126,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>575780897.84000003</v>
       </c>
     </row>
@@ -4301,7 +4292,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="111">
-        <f>40652881.94+2096400</f>
         <v>42749281.939999998</v>
       </c>
     </row>
@@ -4310,7 +4300,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>45058553.939999998</v>
       </c>
     </row>
@@ -4322,7 +4311,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>620839451.77999997</v>
       </c>
     </row>
@@ -4344,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2217876-9BFF-4C47-90C8-35CEB7CE5387}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4470,7 +4458,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="113">
-        <f>11773125.65+17461421.32</f>
         <v>29234546.969999999</v>
       </c>
     </row>
@@ -4504,7 +4491,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>86863329.260000005</v>
       </c>
     </row>
@@ -4558,7 +4544,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>40190185.559999995</v>
       </c>
     </row>
@@ -4674,7 +4659,6 @@
         <v>39</v>
       </c>
       <c r="E30" s="113">
-        <f>10891696.34+4548154</f>
         <v>15439850.34</v>
       </c>
     </row>
@@ -4750,7 +4734,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1146505339.72</v>
       </c>
     </row>
@@ -5327,7 +5310,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>919437644.59000027</v>
       </c>
     </row>
@@ -5502,7 +5484,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -5514,7 +5495,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>919437644.59000027</v>
       </c>
     </row>
@@ -6726,8 +6706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B151A38-8AA7-4E7E-886D-535137BEFA42}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6885,7 +6865,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>148663540.32000002</v>
       </c>
     </row>
@@ -6939,7 +6918,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>217530853.43000001</v>
       </c>
     </row>
@@ -7130,7 +7108,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>1354453982.4700003</v>
       </c>
     </row>
@@ -7229,7 +7206,6 @@
         <v>11</v>
       </c>
       <c r="E47" s="71">
-        <f>21458250.57+4552028.95</f>
         <v>26010279.52</v>
       </c>
     </row>
@@ -7708,7 +7684,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>877691275.66000009</v>
       </c>
     </row>
@@ -7875,7 +7850,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="71">
-        <f>66585873.09+22344108.14</f>
         <v>88929981.230000004</v>
       </c>
     </row>
@@ -7884,7 +7858,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>175821325.28</v>
       </c>
     </row>
@@ -7896,7 +7869,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>1053512600.9400001</v>
       </c>
     </row>
@@ -9109,8 +9081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AB20A73-7811-44C5-A2BE-8CA65A60B67C}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9268,7 +9240,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>10102905.470000001</v>
       </c>
     </row>
@@ -9322,7 +9293,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>13403610.1</v>
       </c>
     </row>
@@ -9513,7 +9483,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>619895326.57000005</v>
       </c>
     </row>
@@ -9559,7 +9528,6 @@
         <v>10</v>
       </c>
       <c r="E42" s="120">
-        <f>93206521-10000000</f>
         <v>83206521</v>
       </c>
     </row>
@@ -9571,7 +9539,6 @@
         <v>11</v>
       </c>
       <c r="E43" s="120">
-        <f>56827528-2000000</f>
         <v>54827528</v>
       </c>
     </row>
@@ -9645,7 +9612,6 @@
         <v>10</v>
       </c>
       <c r="E50" s="120">
-        <f>24259946+1709884+197773</f>
         <v>26167603</v>
       </c>
     </row>
@@ -9657,7 +9623,6 @@
         <v>11</v>
       </c>
       <c r="E51" s="120">
-        <f>23987758+65296+13373</f>
         <v>24066427</v>
       </c>
     </row>
@@ -9669,7 +9634,6 @@
         <v>12</v>
       </c>
       <c r="E52" s="120">
-        <f>100000+23880</f>
         <v>123880</v>
       </c>
     </row>
@@ -9827,7 +9791,6 @@
         <v>11</v>
       </c>
       <c r="E67" s="120">
-        <f>36251123-200000</f>
         <v>36051123</v>
       </c>
     </row>
@@ -10076,7 +10039,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="120">
-        <f>63286321-81463</f>
         <v>63204858</v>
       </c>
     </row>
@@ -10097,7 +10059,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>612569585</v>
       </c>
     </row>
@@ -10272,7 +10233,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>10550573</v>
       </c>
     </row>
@@ -10284,7 +10244,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>623120158</v>
       </c>
     </row>
@@ -10306,8 +10265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF578D2-F309-417B-9A2F-4F3D11FD86B0}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10465,7 +10424,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>111676727.53999999</v>
       </c>
     </row>
@@ -10519,7 +10477,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>19061345.609999999</v>
       </c>
     </row>
@@ -10710,7 +10667,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>640877744.88</v>
       </c>
     </row>
@@ -11050,7 +11006,6 @@
         <v>10</v>
       </c>
       <c r="E70" s="127">
-        <f>159100+6641300</f>
         <v>6800400</v>
       </c>
     </row>
@@ -11062,7 +11017,6 @@
         <v>11</v>
       </c>
       <c r="E71" s="127">
-        <f>34710304.17+534455</f>
         <v>35244759.170000002</v>
       </c>
     </row>
@@ -11289,7 +11243,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>661892182.57000005</v>
       </c>
     </row>
@@ -11456,7 +11409,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="127">
-        <f>7353201.6+4494870.2</f>
         <v>11848071.800000001</v>
       </c>
     </row>
@@ -11465,7 +11417,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>72211138.590000004</v>
       </c>
     </row>
@@ -11477,7 +11428,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>734103321.16000009</v>
       </c>
     </row>
@@ -11499,8 +11449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB293AF-F645-44BD-B923-1DFD3B550384}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11658,7 +11608,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>73188460.460000008</v>
       </c>
     </row>
@@ -11712,7 +11661,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>16466345.07</v>
       </c>
     </row>
@@ -11903,7 +11851,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>635485649.63999999</v>
       </c>
     </row>
@@ -12449,7 +12396,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="95">
-        <f>8147008.73+47998338.61</f>
         <v>56145347.340000004</v>
       </c>
     </row>
@@ -12461,7 +12407,6 @@
         <v>49</v>
       </c>
       <c r="E91" s="95">
-        <f>9878683.62+65261030.95</f>
         <v>75139714.570000008</v>
       </c>
     </row>
@@ -12482,7 +12427,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>502119982.58999997</v>
       </c>
     </row>
@@ -12649,7 +12593,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="95">
-        <f>27133638.78+3757155+217000</f>
         <v>31107793.780000001</v>
       </c>
     </row>
@@ -12658,7 +12601,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>33811333.780000001</v>
       </c>
     </row>
@@ -12670,7 +12612,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>535931316.37</v>
       </c>
     </row>
@@ -12692,8 +12633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FB1728-D870-40F7-AAB9-58D9448D4E9F}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="E6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F20" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12851,7 +12792,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>21636610.190000001</v>
       </c>
     </row>
@@ -12905,7 +12845,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>21735866.57</v>
       </c>
     </row>
@@ -13096,7 +13035,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>578931029.75</v>
       </c>
     </row>
@@ -13487,7 +13425,6 @@
         <v>47</v>
       </c>
       <c r="E75" s="82">
-        <f>1743376.82+323050.91</f>
         <v>2066427.73</v>
       </c>
     </row>
@@ -13499,7 +13436,6 @@
         <v>48</v>
       </c>
       <c r="E76" s="75">
-        <f>9822788.88+6350735.48</f>
         <v>16173524.360000001</v>
       </c>
     </row>
@@ -13675,7 +13611,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>483228590.14999998</v>
       </c>
     </row>
@@ -13850,7 +13785,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="64">
-        <f>SUM(E95:E110)</f>
         <v>154824096.64000002</v>
       </c>
     </row>
@@ -13862,7 +13796,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>638052686.78999996</v>
       </c>
     </row>
@@ -17456,8 +17389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50F12EE-8F40-432A-863E-2F7DA277024B}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17582,7 +17515,6 @@
         <v>23</v>
       </c>
       <c r="E11" s="103">
-        <f>65540389.05-6417619.02+2418594.74</f>
         <v>61541364.770000003</v>
       </c>
     </row>
@@ -17594,7 +17526,6 @@
         <v>24</v>
       </c>
       <c r="E12" s="103">
-        <f>774541.08+3177335.53+10256773.24+475354+1177755.42+27050+6648160.78+368298+165550+571667.5</f>
         <v>23642485.550000001</v>
       </c>
     </row>
@@ -17606,7 +17537,6 @@
         <v>25</v>
       </c>
       <c r="E13" s="104">
-        <f>88562.42+2172330.36+536365.54+127154.24+20530+2220143.94+308433.76</f>
         <v>5473520.2599999998</v>
       </c>
     </row>
@@ -17618,7 +17548,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>90657370.580000013</v>
       </c>
     </row>
@@ -17639,7 +17568,6 @@
         <v>26</v>
       </c>
       <c r="E16" s="103">
-        <f>3310460+5233166.91</f>
         <v>8543626.9100000001</v>
       </c>
     </row>
@@ -17673,7 +17601,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>12864908.420000002</v>
       </c>
     </row>
@@ -17864,7 +17791,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>936567132.89999998</v>
       </c>
     </row>
@@ -18441,7 +18367,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>807782599.10000014</v>
       </c>
     </row>
@@ -18616,7 +18541,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>32516075.850000001</v>
       </c>
     </row>
@@ -18628,7 +18552,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>840298674.95000017</v>
       </c>
     </row>
@@ -18650,8 +18573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F783DD-C011-4EA6-9C06-2C127BA3C76A}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18809,7 +18732,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>14458894.48</v>
       </c>
     </row>
@@ -18863,7 +18785,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>24975924.830000002</v>
       </c>
     </row>
@@ -19054,7 +18975,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>454585962.31</v>
       </c>
     </row>
@@ -19631,7 +19551,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>359415267.00999999</v>
       </c>
     </row>
@@ -19798,7 +19717,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="55">
-        <f>43094280.37+145400</f>
         <v>43239680.369999997</v>
       </c>
     </row>
@@ -19807,7 +19725,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>47572877.18</v>
       </c>
     </row>
@@ -19819,7 +19736,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>406988144.19</v>
       </c>
     </row>
@@ -19841,8 +19757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE08BE82-7469-4288-B86B-A7A972C053D8}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="E2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20000,7 +19916,6 @@
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="29">
-        <f>SUM(E11:E13)</f>
         <v>308892212.24000001</v>
       </c>
     </row>
@@ -20043,7 +19958,6 @@
         <v>28</v>
       </c>
       <c r="E18" s="54">
-        <f>12347186.25+33540702.61</f>
         <v>45887888.859999999</v>
       </c>
     </row>
@@ -20055,7 +19969,6 @@
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="29">
-        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>104219300.15000001</v>
       </c>
     </row>
@@ -20246,7 +20159,6 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="29">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>855801602.38999999</v>
       </c>
     </row>
@@ -20792,7 +20704,6 @@
         <v>57</v>
       </c>
       <c r="E90" s="54">
-        <f>1281048.97+9965726.24</f>
         <v>11246775.210000001</v>
       </c>
     </row>
@@ -20824,7 +20735,6 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="34">
-        <f>SUM(E41:E92)</f>
         <v>613858678.73000002</v>
       </c>
     </row>
@@ -20990,7 +20900,6 @@
         <v>12</v>
       </c>
       <c r="E110" s="55">
-        <f>3915269.27+37659272.74+52000</f>
         <v>41626542.010000005</v>
       </c>
     </row>
@@ -20999,7 +20908,6 @@
         <v>58</v>
       </c>
       <c r="E111" s="22">
-        <f>SUM(E95:E110)</f>
         <v>98079181.300000012</v>
       </c>
     </row>
@@ -21011,7 +20919,6 @@
       <c r="C112" s="17"/>
       <c r="D112" s="17"/>
       <c r="E112" s="21">
-        <f>SUM(E93,E111)</f>
         <v>711937860.02999997</v>
       </c>
     </row>
